--- a/CAMBIOS ENTIDADES.xlsx
+++ b/CAMBIOS ENTIDADES.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GLOIDII</t>
+  </si>
+  <si>
+    <t>jijij</t>
   </si>
 </sst>
 </file>
@@ -441,7 +444,7 @@
   <dimension ref="A1:T123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,9 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
